--- a/Figure_6_Revision/Data/GO for clusters/cluster6_gProfiler_athaliana_11-12-2023_8-17-16 PM__intersections.xlsx
+++ b/Figure_6_Revision/Data/GO for clusters/cluster6_gProfiler_athaliana_11-12-2023_8-17-16 PM__intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhh/Documents/GitHub/ETI_Project/Figure_6_Revision/Data/GO for clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC493E-47CE-6D40-9148-4597FE2F7D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B78A5A4-37C7-6649-8962-B299E37A4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster6_gProfiler_athaliana_11" sheetId="1" r:id="rId1"/>
@@ -1449,9 +1449,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5626,7 +5627,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5673,7 +5674,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -5918,7 +5919,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
@@ -6031,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6114,7 +6115,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C3" t="s">
@@ -7934,7 +7935,7 @@
       <c r="A55" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C55" t="s">
@@ -8529,7 +8530,7 @@
       <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C72" t="s">
@@ -8564,7 +8565,7 @@
       <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" t="s">
@@ -9202,8 +9203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9250,7 +9251,7 @@
       <c r="A2" t="s">
         <v>291</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C2" t="s">
@@ -9285,7 +9286,7 @@
       <c r="A3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C3" t="s">
@@ -9320,7 +9321,7 @@
       <c r="A4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C4" t="s">
@@ -9355,7 +9356,7 @@
       <c r="A5" t="s">
         <v>291</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C5" t="s">
